--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BE/20/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BE/20/seed2/result_data_KNN.xlsx
@@ -474,7 +474,7 @@
         <v>-7.6</v>
       </c>
       <c r="E2" t="n">
-        <v>16.846</v>
+        <v>16.602</v>
       </c>
     </row>
     <row r="3">
@@ -482,7 +482,7 @@
         <v>-21.82</v>
       </c>
       <c r="B3" t="n">
-        <v>6.610000000000001</v>
+        <v>5.484</v>
       </c>
       <c r="C3" t="n">
         <v>-12.16</v>
@@ -669,7 +669,7 @@
         <v>-22.38</v>
       </c>
       <c r="B14" t="n">
-        <v>6.295999999999999</v>
+        <v>5.755999999999999</v>
       </c>
       <c r="C14" t="n">
         <v>-11.3</v>
@@ -703,7 +703,7 @@
         <v>-22.39</v>
       </c>
       <c r="B16" t="n">
-        <v>5.610000000000001</v>
+        <v>5.63</v>
       </c>
       <c r="C16" t="n">
         <v>-13.59</v>
@@ -746,7 +746,7 @@
         <v>-6.27</v>
       </c>
       <c r="E18" t="n">
-        <v>16.656</v>
+        <v>16.481</v>
       </c>
     </row>
     <row r="19">
@@ -788,7 +788,7 @@
         <v>-19.55</v>
       </c>
       <c r="B21" t="n">
-        <v>9.358000000000001</v>
+        <v>8.996</v>
       </c>
       <c r="C21" t="n">
         <v>-13.13</v>
@@ -822,7 +822,7 @@
         <v>-20.35</v>
       </c>
       <c r="B23" t="n">
-        <v>7.384</v>
+        <v>7.849000000000001</v>
       </c>
       <c r="C23" t="n">
         <v>-12.89</v>
@@ -848,7 +848,7 @@
         <v>-7.7</v>
       </c>
       <c r="E24" t="n">
-        <v>17.032</v>
+        <v>16.547</v>
       </c>
     </row>
     <row r="25">
@@ -856,7 +856,7 @@
         <v>-21.51</v>
       </c>
       <c r="B25" t="n">
-        <v>5.474</v>
+        <v>5.67</v>
       </c>
       <c r="C25" t="n">
         <v>-11.07</v>
@@ -865,7 +865,7 @@
         <v>-7.4</v>
       </c>
       <c r="E25" t="n">
-        <v>17.432</v>
+        <v>17.164</v>
       </c>
     </row>
     <row r="26">
@@ -873,7 +873,7 @@
         <v>-21.21</v>
       </c>
       <c r="B26" t="n">
-        <v>5.56</v>
+        <v>6.397</v>
       </c>
       <c r="C26" t="n">
         <v>-10.59</v>
@@ -899,7 +899,7 @@
         <v>-8.550000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>16.614</v>
+        <v>16.659</v>
       </c>
     </row>
     <row r="28">
@@ -924,7 +924,7 @@
         <v>-21.48</v>
       </c>
       <c r="B29" t="n">
-        <v>5.602</v>
+        <v>5.392999999999999</v>
       </c>
       <c r="C29" t="n">
         <v>-11.02</v>
@@ -950,7 +950,7 @@
         <v>-10.18</v>
       </c>
       <c r="E30" t="n">
-        <v>16.288</v>
+        <v>16.466</v>
       </c>
     </row>
     <row r="31">
@@ -967,7 +967,7 @@
         <v>-9.77</v>
       </c>
       <c r="E31" t="n">
-        <v>16.448</v>
+        <v>16.346</v>
       </c>
     </row>
     <row r="32">
@@ -1103,7 +1103,7 @@
         <v>-8.93</v>
       </c>
       <c r="E39" t="n">
-        <v>16.284</v>
+        <v>16.218</v>
       </c>
     </row>
     <row r="40">
@@ -1111,7 +1111,7 @@
         <v>-19.21</v>
       </c>
       <c r="B40" t="n">
-        <v>9.648</v>
+        <v>9.137</v>
       </c>
       <c r="C40" t="n">
         <v>-12.94</v>
@@ -1154,7 +1154,7 @@
         <v>-7.75</v>
       </c>
       <c r="E42" t="n">
-        <v>16.596</v>
+        <v>16.663</v>
       </c>
     </row>
     <row r="43">
@@ -1256,7 +1256,7 @@
         <v>-6.88</v>
       </c>
       <c r="E48" t="n">
-        <v>17.472</v>
+        <v>17.39</v>
       </c>
     </row>
     <row r="49">
@@ -1307,7 +1307,7 @@
         <v>-7.18</v>
       </c>
       <c r="E51" t="n">
-        <v>16.962</v>
+        <v>16.617</v>
       </c>
     </row>
     <row r="52">
@@ -1324,7 +1324,7 @@
         <v>-6.93</v>
       </c>
       <c r="E52" t="n">
-        <v>16.478</v>
+        <v>16.543</v>
       </c>
     </row>
     <row r="53">
@@ -1332,7 +1332,7 @@
         <v>-21.36</v>
       </c>
       <c r="B53" t="n">
-        <v>6.402000000000001</v>
+        <v>5.89</v>
       </c>
       <c r="C53" t="n">
         <v>-12.98</v>
@@ -1375,7 +1375,7 @@
         <v>-10.06</v>
       </c>
       <c r="E55" t="n">
-        <v>16.688</v>
+        <v>16.416</v>
       </c>
     </row>
     <row r="56">
@@ -1392,7 +1392,7 @@
         <v>-8.92</v>
       </c>
       <c r="E56" t="n">
-        <v>16.172</v>
+        <v>16.214</v>
       </c>
     </row>
     <row r="57">
@@ -1400,7 +1400,7 @@
         <v>-22.67</v>
       </c>
       <c r="B57" t="n">
-        <v>4.880000000000001</v>
+        <v>5.091</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1409,7 +1409,7 @@
         <v>-8.31</v>
       </c>
       <c r="E57" t="n">
-        <v>16.568</v>
+        <v>16.553</v>
       </c>
     </row>
     <row r="58">
@@ -1434,7 +1434,7 @@
         <v>-21.94</v>
       </c>
       <c r="B59" t="n">
-        <v>4.497999999999999</v>
+        <v>4.435</v>
       </c>
       <c r="C59" t="n">
         <v>-14.55</v>
@@ -1460,7 +1460,7 @@
         <v>-9.630000000000001</v>
       </c>
       <c r="E60" t="n">
-        <v>16.314</v>
+        <v>16.569</v>
       </c>
     </row>
     <row r="61">
@@ -1536,7 +1536,7 @@
         <v>-22.48</v>
       </c>
       <c r="B65" t="n">
-        <v>6.456</v>
+        <v>5.737</v>
       </c>
       <c r="C65" t="n">
         <v>-11.86</v>
@@ -1604,7 +1604,7 @@
         <v>-21.67</v>
       </c>
       <c r="B69" t="n">
-        <v>5.473999999999999</v>
+        <v>5.106</v>
       </c>
       <c r="C69" t="n">
         <v>-10.8</v>
@@ -1681,7 +1681,7 @@
         <v>-6.42</v>
       </c>
       <c r="E73" t="n">
-        <v>16.476</v>
+        <v>16.735</v>
       </c>
     </row>
     <row r="74">
@@ -1698,7 +1698,7 @@
         <v>-8.550000000000001</v>
       </c>
       <c r="E74" t="n">
-        <v>16.872</v>
+        <v>16.607</v>
       </c>
     </row>
     <row r="75">
@@ -1774,7 +1774,7 @@
         <v>-20.57</v>
       </c>
       <c r="B79" t="n">
-        <v>6.116</v>
+        <v>5.548999999999999</v>
       </c>
       <c r="C79" t="n">
         <v>-9.779999999999999</v>
@@ -1842,7 +1842,7 @@
         <v>-22.74</v>
       </c>
       <c r="B83" t="n">
-        <v>5.186000000000001</v>
+        <v>5.523999999999999</v>
       </c>
       <c r="C83" t="n">
         <v>-13.03</v>
@@ -1953,7 +1953,7 @@
         <v>-7</v>
       </c>
       <c r="E89" t="n">
-        <v>17.128</v>
+        <v>17.374</v>
       </c>
     </row>
     <row r="90">
@@ -1970,7 +1970,7 @@
         <v>-8.890000000000001</v>
       </c>
       <c r="E90" t="n">
-        <v>16.336</v>
+        <v>16.348</v>
       </c>
     </row>
     <row r="91">
@@ -1978,7 +1978,7 @@
         <v>-21.49</v>
       </c>
       <c r="B91" t="n">
-        <v>5.254</v>
+        <v>6.318000000000001</v>
       </c>
       <c r="C91" t="n">
         <v>-10.09</v>
@@ -2004,7 +2004,7 @@
         <v>-5.32</v>
       </c>
       <c r="E92" t="n">
-        <v>17.992</v>
+        <v>17.7</v>
       </c>
     </row>
     <row r="93">
@@ -2012,7 +2012,7 @@
         <v>-22.29</v>
       </c>
       <c r="B93" t="n">
-        <v>5.394</v>
+        <v>5.635000000000001</v>
       </c>
       <c r="C93" t="n">
         <v>-11.3</v>
@@ -2131,7 +2131,7 @@
         <v>-21.66</v>
       </c>
       <c r="B100" t="n">
-        <v>5.891999999999999</v>
+        <v>5.728</v>
       </c>
       <c r="C100" t="n">
         <v>-14.32</v>
